--- a/Monthly/Ljung_Box/First Difference/sony.xlsx
+++ b/Monthly/Ljung_Box/First Difference/sony.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01230837008353284</v>
+        <v>0.1621558096436229</v>
+      </c>
+      <c r="C2">
+        <v>0.6871794215842444</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.0613649811192214</v>
+        <v>0.6544002386773631</v>
+      </c>
+      <c r="C3">
+        <v>0.7209394546627461</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.22605625479106</v>
+        <v>0.9370637520368418</v>
       </c>
       <c r="C4">
-        <v>0.2681753758059965</v>
+        <v>0.8164754968928816</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.241404934087326</v>
+        <v>1.674669581433118</v>
       </c>
       <c r="C5">
-        <v>0.5375666820518861</v>
+        <v>0.7953136192720983</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.776212882236652</v>
+        <v>1.724466407562048</v>
       </c>
       <c r="C6">
-        <v>0.620124908658114</v>
+        <v>0.885803105636721</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.832389205029102</v>
+        <v>1.726561349516893</v>
       </c>
       <c r="C7">
-        <v>0.7665515255713953</v>
+        <v>0.9430523182388384</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.322177469180275</v>
+        <v>4.300888487027705</v>
       </c>
       <c r="C8">
-        <v>0.803004171843499</v>
+        <v>0.7445417228138285</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.415774175954016</v>
+        <v>4.574584713025486</v>
       </c>
       <c r="C9">
-        <v>0.8777722262865201</v>
+        <v>0.8019255906143434</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.687385410728284</v>
+        <v>5.785462614848488</v>
       </c>
       <c r="C10">
-        <v>0.4621383816207264</v>
+        <v>0.7611832754471071</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8.409963664154787</v>
+        <v>8.822550209834715</v>
       </c>
       <c r="C11">
-        <v>0.3944815636041322</v>
+        <v>0.5490230816460607</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8.42119777241698</v>
+        <v>9.104001024622409</v>
       </c>
       <c r="C12">
-        <v>0.4923188429128007</v>
+        <v>0.6122930492060101</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10.74937800193069</v>
+        <v>10.28558538628886</v>
       </c>
       <c r="C13">
-        <v>0.377374289579906</v>
+        <v>0.5909219765338674</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>11.4165190125112</v>
+        <v>10.29035295830775</v>
       </c>
       <c r="C14">
-        <v>0.4090566519189996</v>
+        <v>0.6700362461845357</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>12.42670102751619</v>
+        <v>10.3773834280002</v>
       </c>
       <c r="C15">
-        <v>0.412047245896372</v>
+        <v>0.7341048260945149</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>12.68187746188443</v>
+        <v>10.58546909340661</v>
       </c>
       <c r="C16">
-        <v>0.4726736805897623</v>
+        <v>0.7813882614628015</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>15.13876407433612</v>
+        <v>11.93326211236108</v>
       </c>
       <c r="C17">
-        <v>0.3687352146941825</v>
+        <v>0.7485609787833971</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>15.65415265372011</v>
+        <v>13.05251089052603</v>
       </c>
       <c r="C18">
-        <v>0.4054016319948408</v>
+        <v>0.7326637064290736</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>15.74584451373069</v>
+        <v>14.5325200719166</v>
       </c>
       <c r="C19">
-        <v>0.4708354587832146</v>
+        <v>0.6937758087968149</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>15.74598115686128</v>
+        <v>14.65244398223593</v>
       </c>
       <c r="C20">
-        <v>0.5419086479010125</v>
+        <v>0.7444165922520203</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>15.98789489220732</v>
+        <v>15.885678925213</v>
       </c>
       <c r="C21">
-        <v>0.5933921958003923</v>
+        <v>0.7236907426320058</v>
       </c>
     </row>
   </sheetData>
